--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,13 +521,21 @@
       <c r="H2" t="n">
         <v>500000</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+      <c r="K2" t="n">
+        <v>549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001098</v>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -564,13 +572,21 @@
       <c r="H3" t="n">
         <v>100000</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>77</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.00077</v>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -607,13 +623,21 @@
       <c r="H4" t="n">
         <v>500000</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000142</v>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -650,13 +674,21 @@
       <c r="H5" t="n">
         <v>500000</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.000154</v>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -693,13 +725,21 @@
       <c r="H6" t="n">
         <v>500000</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>71</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000142</v>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -736,13 +776,21 @@
       <c r="H7" t="n">
         <v>500000</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+      <c r="K7" t="n">
+        <v>550</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0011</v>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -779,13 +827,21 @@
       <c r="H8" t="n">
         <v>500000</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>77</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.000154</v>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -822,13 +878,21 @@
       <c r="H9" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0002266666666666667</v>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -865,13 +929,21 @@
       <c r="H10" t="n">
         <v>300000</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>51</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00017</v>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -908,13 +980,21 @@
       <c r="H11" t="n">
         <v>200000</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.000255</v>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -951,13 +1031,21 @@
       <c r="H12" t="n">
         <v>200000</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.000255</v>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -994,13 +1082,21 @@
       <c r="H13" t="n">
         <v>200000</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>51</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.000255</v>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>
@@ -1037,830 +1133,21 @@
       <c r="H14" t="n">
         <v>500000</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9.6e-05</v>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash-lite</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H15" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash-tts</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Multi-modal generative models</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>20</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>gemini-3-flash</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>gemini-robotics-er-1.5-preview</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H19" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>gemma-3-12b</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H20" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>gemma-3-1b</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>gemma-3-27b</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>30</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H22" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>gemma-3-2b</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>30</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>gemma-3-4b</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>30</v>
-      </c>
-      <c r="F24" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G24" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>gemini-embedding-1.0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Other models</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>100</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash-native-audio-dialog</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Live API</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>gemini-3-pro-preview</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>10</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H27" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>gemini-3-flash-preview</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>250</v>
-      </c>
-      <c r="G28" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H28" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>gemini-2.5-pro</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
-        <v>250</v>
-      </c>
-      <c r="G30" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H30" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash-lite</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>15</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H31" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>models/gemini-flash-latest</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Text-out models</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>15</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H32" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Gemini</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>iit2022231@iiita.ac.in</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Text-out models-N/A</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>15</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H33" t="n">
-        <v>500000</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2026-02-10T13:25:12.498067</t>
+          <t>2026-02-11T13:27:13.091680</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,67 +434,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>User_ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Requests per Minute</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Requests per Day</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tokens per Minute</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tokens per Day</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Current_Ct_Day</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Current_Pct_Ct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Current_Ct_Tokens</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Current_Pct_Tokens</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Last_Reset</t>
         </is>
@@ -522,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007638888888888889</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>2730</v>
+        <v>3213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00546</v>
+        <v>0.006426</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0009027777777777777</v>
+        <v>0.0009722222222222222</v>
       </c>
       <c r="K2" t="n">
-        <v>3690</v>
+        <v>4157</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00738</v>
+        <v>0.008314</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -891,16 +891,16 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002266666666666667</v>
+        <v>0.001023333333333333</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000255</v>
+        <v>0.00143</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1044,16 +1044,16 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K12" t="n">
-        <v>51</v>
+        <v>519</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000255</v>
+        <v>0.002595</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001041666666666667</v>
+        <v>0.001111111111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>4400</v>
+        <v>4868</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.009736</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -585,16 +585,16 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K3" t="n">
-        <v>77</v>
+        <v>712</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00077</v>
+        <v>0.00712</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001111111111111111</v>
+        <v>0.001180555555555556</v>
       </c>
       <c r="K2" t="n">
-        <v>4868</v>
+        <v>5381</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009736</v>
+        <v>0.010762</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -585,16 +585,16 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.00469</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0009879999999999999</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -891,16 +891,16 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.00162</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0001388888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>472</v>
+        <v>937</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000944</v>
+        <v>0.001874</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.000966</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002083333333333333</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="K2" t="n">
-        <v>1409</v>
+        <v>1922</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002818</v>
+        <v>0.003844</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002777777777777778</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1922</v>
+        <v>476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003844</v>
+        <v>0.000952</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00469</v>
+        <v>0.00472</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009879999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001426</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00162</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001773333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00281</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000966</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-18T21:06:08.465605</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.000942</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.000944</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -891,16 +891,16 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.001603333333333333</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.001563333333333333</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002345</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1044,16 +1044,16 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.003475</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.000946</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0001388888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>476</v>
+        <v>953</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000952</v>
+        <v>0.001906</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0002083333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>953</v>
+        <v>1426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001906</v>
+        <v>0.002852</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002083333333333333</v>
+        <v>0.0003472222222222222</v>
       </c>
       <c r="K2" t="n">
-        <v>1426</v>
+        <v>2487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002852</v>
+        <v>0.004974</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004166666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>2487</v>
+        <v>2969</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004974</v>
+        <v>0.005938</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004166666666666667</v>
+        <v>0.0005555555555555556</v>
       </c>
       <c r="K2" t="n">
-        <v>2969</v>
+        <v>3909</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005938</v>
+        <v>0.007818</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005555555555555556</v>
+        <v>0.000625</v>
       </c>
       <c r="K2" t="n">
-        <v>3909</v>
+        <v>4425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007818</v>
+        <v>0.00885</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000625</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>4425</v>
+        <v>5835</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00885</v>
+        <v>0.01167</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>5835</v>
+        <v>7268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01167</v>
+        <v>0.014536</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>1016</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000942</v>
+        <v>0.002032</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K5" t="n">
-        <v>472</v>
+        <v>948</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000944</v>
+        <v>0.001896</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K10" t="n">
-        <v>469</v>
+        <v>945</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001563333333333333</v>
+        <v>0.00315</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K14" t="n">
-        <v>473</v>
+        <v>939</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000946</v>
+        <v>0.001878</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001041666666666667</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>7268</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.014536</v>
+        <v>0.001002</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00472</v>
+        <v>0.00505</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002032</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001896</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001603333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00315</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002345</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003475</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>939</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001878</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-18T21:06:08.465605</t>
+          <t>2026-02-19T22:38:03.628800</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.00127</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.00094</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -891,16 +891,16 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.001576666666666667</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.00159</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002355</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1044,16 +1044,16 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.00235</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0001388888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>966</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001002</v>
+        <v>0.001932</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0002083333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>966</v>
+        <v>1439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001932</v>
+        <v>0.002878</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002083333333333333</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="K2" t="n">
-        <v>1439</v>
+        <v>1912</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002878</v>
+        <v>0.003824</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.0004861111111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>1912</v>
+        <v>3331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003824</v>
+        <v>0.006662</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004861111111111111</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>3331</v>
+        <v>469</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006662</v>
+        <v>0.000938</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00505</v>
+        <v>0.00495</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00127</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00094</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001576666666666667</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00159</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002355</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00235</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-19T22:38:03.628800</t>
+          <t>2026-02-20T23:33:43.608782</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.001368</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.001074</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.00155</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002385</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1044,16 +1044,16 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.002375</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0001388888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>469</v>
+        <v>937</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000938</v>
+        <v>0.001874</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.001054</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="K2" t="n">
-        <v>937</v>
+        <v>1888</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001874</v>
+        <v>0.003776</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.0004166666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>1888</v>
+        <v>3002</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003776</v>
+        <v>0.006004</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004166666666666667</v>
+        <v>0.0004861111111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>3002</v>
+        <v>3474</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006004</v>
+        <v>0.006948</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004861111111111111</v>
+        <v>0.0005555555555555556</v>
       </c>
       <c r="K2" t="n">
-        <v>3474</v>
+        <v>3939</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006948</v>
+        <v>0.007878</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005555555555555556</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="K2" t="n">
-        <v>3939</v>
+        <v>4974</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007878</v>
+        <v>0.009948</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006944444444444445</v>
+        <v>0.0007638888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>4974</v>
+        <v>5440</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009948</v>
+        <v>0.01088</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007638888888888889</v>
+        <v>0.0009027777777777777</v>
       </c>
       <c r="K2" t="n">
-        <v>5440</v>
+        <v>6396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01088</v>
+        <v>0.012792</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0009027777777777777</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>6396</v>
+        <v>7364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012792</v>
+        <v>0.014728</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K14" t="n">
-        <v>527</v>
+        <v>1007</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001054</v>
+        <v>0.002014</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001041666666666667</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>7364</v>
+        <v>480</v>
       </c>
       <c r="L2" t="n">
-        <v>0.014728</v>
+        <v>0.00096</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -585,20 +585,20 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00495</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001368</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001074</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001603333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00155</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002385</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002014</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-20T23:33:43.608782</t>
+          <t>2026-02-21T23:50:55.774358</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -585,16 +585,16 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.00684</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.00095</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.000982</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -891,16 +891,16 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.00168</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.00161</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.00254</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1044,16 +1044,16 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.00254</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.000932</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="K2" t="n">
-        <v>480</v>
+        <v>1891</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00096</v>
+        <v>0.003782</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0.0004166666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>1891</v>
+        <v>2835</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003782</v>
+        <v>0.00567</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004166666666666667</v>
+        <v>0.000625</v>
       </c>
       <c r="K2" t="n">
-        <v>2835</v>
+        <v>4265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00567</v>
+        <v>0.008529999999999999</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000625</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>4265</v>
+        <v>5691</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.011382</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>5691</v>
+        <v>7122</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011382</v>
+        <v>0.014244</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
